--- a/public/file/MAU_HOP_DONG.xlsx
+++ b/public/file/MAU_HOP_DONG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghia.dnn\Desktop\Appartment-Management-System-Client\public\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Appartment-Management-System-Client\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4151C498-16F9-4572-B01F-2376CA57326A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8561FA-3702-4C2C-B896-CFE16DB6FD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách hợp đồng" sheetId="1" r:id="rId1"/>
@@ -22,30 +22,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -173,9 +162,6 @@
     <t>Họ tên khách hàng</t>
   </si>
   <si>
-    <t>Dữ liệu hợp lệ?</t>
-  </si>
-  <si>
     <t>Thuê</t>
   </si>
   <si>
@@ -243,6 +229,9 @@
   </si>
   <si>
     <t>Ngày ký hợp đồng (nếu có)</t>
+  </si>
+  <si>
+    <t>Xử lý thành công?</t>
   </si>
 </sst>
 </file>
@@ -804,10 +793,10 @@
         <v>32</v>
       </c>
       <c r="G4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>33</v>
@@ -822,7 +811,7 @@
         <v>36</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -855,7 +844,7 @@
         <v>1000000000</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="14">
         <v>45658</v>
@@ -895,7 +884,7 @@
         <v>2000000</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="14">
         <v>45658</v>
@@ -936,9 +925,12 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E7" xr:uid="{6C3C0C35-B5C6-4459-B222-9129E49481E4}">
-      <formula1>"Thuê,Mua,Rental,Buy"</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{6C3C0C35-B5C6-4459-B222-9129E49481E4}">
+      <formula1>"Thuê,Mua,Rental,Purchase"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6" xr:uid="{81F56F5D-718E-4615-9CA4-FBEA0CC989CF}">
+      <formula1>"Thuê,Mua,Rental,Purchase"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -962,7 +954,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="B1" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
@@ -974,43 +966,43 @@
         <v>27</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>44</v>
-      </c>
       <c r="G4" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="J4" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="K4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>52</v>
-      </c>
       <c r="N4" s="22" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1047,7 +1039,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9">
@@ -1057,14 +1049,14 @@
         <v>36526</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N6" s="11" t="b">
         <v>0</v>
@@ -1084,7 +1076,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>21</v>
@@ -1094,14 +1086,14 @@
         <v>36827</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N7" s="11" t="b">
         <v>0</v>
@@ -1156,7 +1148,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="B1" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
@@ -1168,43 +1160,43 @@
         <v>27</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>44</v>
-      </c>
       <c r="G4" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="J4" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="K4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>52</v>
-      </c>
       <c r="N4" s="22" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1241,7 +1233,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>16</v>
@@ -1253,7 +1245,7 @@
         <v>36526</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>17</v>
@@ -1262,7 +1254,7 @@
         <v>18</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N6" s="11" t="b">
         <v>0</v>
@@ -1282,7 +1274,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>21</v>
@@ -1292,7 +1284,7 @@
         <v>36827</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>22</v>
@@ -1301,7 +1293,7 @@
         <v>23</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N7" s="11" t="b">
         <v>0</v>

--- a/public/file/MAU_HOP_DONG.xlsx
+++ b/public/file/MAU_HOP_DONG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Appartment-Management-System-Client\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8561FA-3702-4C2C-B896-CFE16DB6FD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47345E4C-96EF-4C44-B08D-AD1E84421790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>Building A</t>
   </si>
@@ -66,18 +66,6 @@
     <t>3010</t>
   </si>
   <si>
-    <t>00000001</t>
-  </si>
-  <si>
-    <t>00000002</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
     <t>00000300</t>
   </si>
   <si>
@@ -148,12 +136,6 @@
   </si>
   <si>
     <t>Ngày bắt đầu hiệu lực</t>
-  </si>
-  <si>
-    <t>Mã nhân viên</t>
-  </si>
-  <si>
-    <t>Họ tên nhân viên</t>
   </si>
   <si>
     <t>Mã khách hàng</t>
@@ -428,16 +410,16 @@
     <xf numFmtId="41" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -739,9 +721,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -753,68 +737,60 @@
     <col min="6" max="8" width="30.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="40.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="40.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="20.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="G4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -825,11 +801,9 @@
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>ROW()-5</f>
         <v>1</v>
@@ -844,7 +818,7 @@
         <v>1000000000</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F6" s="14">
         <v>45658</v>
@@ -859,17 +833,11 @@
       <c r="J6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="11" t="b">
+      <c r="K6" s="11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f>ROW()-5</f>
         <v>2</v>
@@ -884,7 +852,7 @@
         <v>2000000</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F7" s="14">
         <v>45658</v>
@@ -899,37 +867,26 @@
       <c r="J7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="12" t="b">
+      <c r="K7" s="12" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="11">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{6C3C0C35-B5C6-4459-B222-9129E49481E4}">
-      <formula1>"Thuê,Mua,Rental,Purchase"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6" xr:uid="{81F56F5D-718E-4615-9CA4-FBEA0CC989CF}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E7" xr:uid="{6C3C0C35-B5C6-4459-B222-9129E49481E4}">
       <formula1>"Thuê,Mua,Rental,Purchase"</formula1>
     </dataValidation>
   </dataValidations>
@@ -954,7 +911,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B1" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="B1" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
@@ -962,51 +919,51 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>27</v>
+      <c r="A4" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="I4" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="19" t="s">
+      <c r="J4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="19" t="s">
+      <c r="M4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -1018,8 +975,8 @@
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1027,19 +984,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9">
@@ -1049,14 +1006,14 @@
         <v>36526</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N6" s="11" t="b">
         <v>0</v>
@@ -1069,31 +1026,31 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="14">
         <v>36827</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N7" s="11" t="b">
         <v>0</v>
@@ -1101,6 +1058,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -1109,12 +1072,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F7" xr:uid="{50F6DB4B-88ED-4AE5-968D-4842B072C2AA}">
@@ -1148,7 +1105,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B1" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="B1" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
@@ -1156,51 +1113,51 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>27</v>
+      <c r="A4" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="I4" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="19" t="s">
+      <c r="J4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="19" t="s">
+      <c r="M4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -1212,8 +1169,8 @@
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1221,22 +1178,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H6" s="9">
         <v>123456789</v>
@@ -1245,16 +1202,16 @@
         <v>36526</v>
       </c>
       <c r="J6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="N6" s="11" t="b">
         <v>0</v>
@@ -1267,33 +1224,33 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="14">
         <v>36827</v>
       </c>
       <c r="J7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>53</v>
       </c>
       <c r="N7" s="11" t="b">
         <v>0</v>
@@ -1301,6 +1258,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
@@ -1310,11 +1272,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M7" xr:uid="{F30A2B2D-40D8-47E5-95A0-A8B9491581B6}">

--- a/public/file/MAU_HOP_DONG.xlsx
+++ b/public/file/MAU_HOP_DONG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Appartment-Management-System-Client\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47345E4C-96EF-4C44-B08D-AD1E84421790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46336F00-A472-4EB2-8BBF-6ECB409301FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Building A</t>
   </si>
@@ -87,12 +87,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>123456789012</t>
-  </si>
-  <si>
-    <t>email1@example.com</t>
-  </si>
-  <si>
     <t>1234567890</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>email2@example.com</t>
   </si>
   <si>
-    <t>0987654321</t>
-  </si>
-  <si>
     <t>00000315</t>
   </si>
   <si>
@@ -214,6 +205,15 @@
   </si>
   <si>
     <t>Xử lý thành công?</t>
+  </si>
+  <si>
+    <t>Ngày tạo hợp đồng</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4010</t>
   </si>
 </sst>
 </file>
@@ -721,11 +721,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -734,63 +732,66 @@
     <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="9" width="30.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="40.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="F4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="H4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="K4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -801,9 +802,10 @@
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>ROW()-5</f>
         <v>1</v>
@@ -818,26 +820,29 @@
         <v>1000000000</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F6" s="14">
         <v>45658</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14">
+      <c r="G6" s="14">
+        <v>45658</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14">
         <v>45626</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="11" t="b">
+      <c r="L6" s="11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f>ROW()-5</f>
         <v>2</v>
@@ -852,41 +857,82 @@
         <v>2000000</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F7" s="14">
         <v>45658</v>
       </c>
       <c r="G7" s="14">
+        <v>45658</v>
+      </c>
+      <c r="H7" s="14">
         <v>46023</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="14"/>
+      <c r="J7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="12" t="b">
+      <c r="L7" s="12" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <f>ROW()-5</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="14">
+        <v>45658</v>
+      </c>
+      <c r="G8" s="14">
+        <v>45658</v>
+      </c>
+      <c r="H8" s="14">
+        <v>46023</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E7" xr:uid="{6C3C0C35-B5C6-4459-B222-9129E49481E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8" xr:uid="{6C3C0C35-B5C6-4459-B222-9129E49481E4}">
       <formula1>"Thuê,Mua,Rental,Purchase"</formula1>
     </dataValidation>
   </dataValidations>
@@ -911,7 +957,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="B1" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
@@ -920,46 +966,46 @@
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="G4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -984,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>9</v>
@@ -996,7 +1042,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9">
@@ -1006,14 +1052,14 @@
         <v>36526</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N6" s="11" t="b">
         <v>0</v>
@@ -1026,31 +1072,31 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="14">
         <v>36827</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N7" s="11" t="b">
         <v>0</v>
@@ -1090,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2D25DA-F7EB-4994-AFB5-0C56D91C01E8}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1105,7 +1151,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="B1" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
@@ -1114,46 +1160,46 @@
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="G4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1171,90 +1217,6 @@
       <c r="L5" s="19"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <f>ROW()-5</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="9">
-        <v>123456789</v>
-      </c>
-      <c r="I6" s="14">
-        <v>36526</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <f>ROW()-5</f>
-        <v>2</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="14">
-        <v>36827</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="11" t="b">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1273,18 +1235,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M7" xr:uid="{F30A2B2D-40D8-47E5-95A0-A8B9491581B6}">
-      <formula1>"Con cái,Vợ/Chồng,Cha/Mẹ,Khác,Child,Spouse,Parent,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F7" xr:uid="{3913D4A4-F863-46E2-A286-FC97CBCD48D6}">
-      <formula1>"Nam,Nữ,Khác,Male,Female,Other"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="K6" r:id="rId1" xr:uid="{C25F5C1E-F614-48BA-A703-46DAF0F1FD60}"/>
-    <hyperlink ref="K7" r:id="rId2" xr:uid="{F85630E0-791E-4B62-9927-F159773BBE7E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/file/MAU_HOP_DONG.xlsx
+++ b/public/file/MAU_HOP_DONG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Appartment-Management-System-Client\public\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghia.dnn\Desktop\Appartment-Management-System-Client\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46336F00-A472-4EB2-8BBF-6ECB409301FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A94C058-F2BA-458C-89BB-09F0AE263497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="900" windowWidth="26970" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách hợp đồng" sheetId="1" r:id="rId1"/>
@@ -22,19 +22,30 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -347,7 +358,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -375,22 +386,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -410,16 +405,16 @@
     <xf numFmtId="41" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,23 +434,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
-<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
-  <bag type="Checkbox"/>
-  <bag type="XFControls">
-    <bagId k="CellControl">0</bagId>
-  </bag>
-  <bag type="XFComplement">
-    <bagId k="XFControls">1</bagId>
-  </bag>
-  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
-    <a k="MappedFeaturePropertyBags">
-      <bagId>2</bagId>
-    </a>
-  </bag>
-</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -754,56 +732,56 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -816,20 +794,20 @@
       <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>1000000000</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <v>45658</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="12">
         <v>45658</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14">
+      <c r="H6" s="12"/>
+      <c r="I6" s="12">
         <v>45626</v>
       </c>
       <c r="J6" s="9" t="s">
@@ -838,9 +816,7 @@
       <c r="K6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="11" t="b">
-        <v>0</v>
-      </c>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -853,31 +829,29 @@
       <c r="C7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>2000000</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>45658</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>45658</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="12">
         <v>46023</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="12" t="b">
-        <v>0</v>
-      </c>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -890,31 +864,29 @@
       <c r="C8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <v>2000000</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>45658</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="12">
         <v>45658</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="12">
         <v>46023</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="12" t="b">
-        <v>0</v>
-      </c>
+      <c r="L8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -965,40 +937,40 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="17" t="s">
         <v>45</v>
       </c>
       <c r="M4" s="20" t="s">
@@ -1009,18 +981,18 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
     </row>
@@ -1048,22 +1020,20 @@
       <c r="H6" s="9">
         <v>123456789</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="12">
         <v>36526</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="11" t="b">
-        <v>0</v>
-      </c>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1085,31 +1055,23 @@
         <v>15</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="14">
+      <c r="I7" s="12">
         <v>36827</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="13" t="s">
         <v>16</v>
       </c>
       <c r="L7" s="10"/>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="11" t="b">
-        <v>0</v>
-      </c>
+      <c r="N7" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B4:B5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -1118,6 +1080,12 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F7" xr:uid="{50F6DB4B-88ED-4AE5-968D-4842B072C2AA}">
@@ -1159,40 +1127,40 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="17" t="s">
         <v>45</v>
       </c>
       <c r="M4" s="20" t="s">
@@ -1203,28 +1171,23 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
@@ -1234,6 +1197,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/file/MAU_HOP_DONG.xlsx
+++ b/public/file/MAU_HOP_DONG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghia.dnn\Desktop\Appartment-Management-System-Client\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A94C058-F2BA-458C-89BB-09F0AE263497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753CF36F-0FCC-4297-9650-45AD4F3E11E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="900" windowWidth="26970" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách hợp đồng" sheetId="1" r:id="rId1"/>
@@ -231,10 +231,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -386,9 +387,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -405,17 +403,20 @@
     <xf numFmtId="41" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -732,56 +733,56 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -794,20 +795,20 @@
       <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="21">
         <v>1000000000</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>45658</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>45658</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12">
+      <c r="H6" s="11"/>
+      <c r="I6" s="11">
         <v>45626</v>
       </c>
       <c r="J6" s="9" t="s">
@@ -829,22 +830,22 @@
       <c r="C7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="21">
         <v>2000000</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>45658</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>45658</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>46023</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="9" t="s">
         <v>6</v>
       </c>
@@ -864,22 +865,22 @@
       <c r="C8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="21">
         <v>2000000</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>45658</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>45658</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>46023</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="9" t="s">
         <v>6</v>
       </c>
@@ -937,64 +938,64 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1020,17 +1021,17 @@
       <c r="H6" s="9">
         <v>123456789</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>36526</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="13"/>
+      <c r="K6" s="12"/>
       <c r="L6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>43</v>
       </c>
       <c r="N6" s="9"/>
@@ -1055,23 +1056,29 @@
         <v>15</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>36827</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="12" t="s">
         <v>16</v>
       </c>
       <c r="L7" s="10"/>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="13" t="s">
         <v>44</v>
       </c>
       <c r="N7" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -1080,12 +1087,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F7" xr:uid="{50F6DB4B-88ED-4AE5-968D-4842B072C2AA}">
@@ -1127,67 +1128,72 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
@@ -1197,11 +1203,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
